--- a/Excel Workbooks/100/100Pi6.xlsx
+++ b/Excel Workbooks/100/100Pi6.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910FCC70-52DF-4763-88E4-0660C5FE4809}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,9 +441,9 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.2974002201859132</v>
+        <v>0.29740022018591322</v>
       </c>
       <c r="B2">
         <v>0.3671841135393028</v>
@@ -397,12 +452,12 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-0.1815926535897932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.18159265358979321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.223121936789198</v>
+        <v>0.22312193678919801</v>
       </c>
       <c r="B3">
         <v>0.2792284841311754</v>
@@ -411,15 +466,15 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>-5.780273689597959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-5.7802736895979594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.5221589375343629</v>
+        <v>0.52215893753436293</v>
       </c>
       <c r="B4">
-        <v>0.04583546832343222</v>
+        <v>4.5835468323432223E-2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,295 +483,295 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5803247492856189</v>
+        <v>0.58032474928561895</v>
       </c>
       <c r="B5">
-        <v>0.7785490022519816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.77854900225198165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3963917349753522</v>
+        <v>0.39639173497535218</v>
       </c>
       <c r="B6">
-        <v>0.7711335891665512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.77113358916655117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.4574132521584779</v>
+        <v>0.45741325215847789</v>
       </c>
       <c r="B7">
-        <v>0.8978661363854722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.89786613638547219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.6875143394052347</v>
+        <v>0.68751433940523465</v>
       </c>
       <c r="B8">
         <v>0.111485522211105</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.535419810585961</v>
       </c>
       <c r="B9">
-        <v>0.9166802392183858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.91668023921838582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9639017872010579</v>
       </c>
       <c r="B10">
-        <v>0.8379890547258096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.83798905472580965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.4972429665532736</v>
       </c>
       <c r="B11">
-        <v>0.7754492256795436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.77544922567954355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.5092907039678543</v>
+        <v>0.50929070396785425</v>
       </c>
       <c r="B12">
-        <v>0.3468696944439071</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.34686969444390708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.08394291722064084</v>
+        <v>8.3942917220640845E-2</v>
       </c>
       <c r="B13">
-        <v>0.8872202551656838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.88722025516568381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.1163990866727158</v>
       </c>
       <c r="B14">
-        <v>0.577963231393385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.57796323139338501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.0518326332864536</v>
+        <v>5.18326332864536E-2</v>
       </c>
       <c r="B15">
-        <v>0.7775984389500324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.77759843895003244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.5099620716673284</v>
+        <v>0.50996207166732843</v>
       </c>
       <c r="B16">
         <v>0.4624221272769431</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.8657552132350497</v>
+        <v>0.86575521323504967</v>
       </c>
       <c r="B17">
-        <v>0.5726331354791901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.57263313547919015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.9451469411941482</v>
+        <v>0.94514694119414822</v>
       </c>
       <c r="B18">
-        <v>0.7878238699792813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.78782386997928133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.532587972859578</v>
+        <v>0.53258797285957804</v>
       </c>
       <c r="B19">
-        <v>0.2073328346728557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.20733283467285571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.7211007191417633</v>
+        <v>0.72110071914176332</v>
       </c>
       <c r="B20">
-        <v>0.3963798246386085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.39637982463860849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.9024877339625473</v>
+        <v>0.90248773396254733</v>
       </c>
       <c r="B21">
-        <v>0.6959707554187028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.69597075541870279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.9503810543923998</v>
+        <v>0.95038105439239984</v>
       </c>
       <c r="B22">
-        <v>0.361629775849488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.36162977584948802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.836165013992875</v>
+        <v>0.83616501399287502</v>
       </c>
       <c r="B23">
-        <v>0.3306049296722263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.33060492967222632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.9362696502587862</v>
+        <v>0.93626965025878617</v>
       </c>
       <c r="B24">
-        <v>0.6974850711556629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.69748507115566294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.3308808507292509</v>
+        <v>0.33088085072925089</v>
       </c>
       <c r="B25">
-        <v>0.9688096293606271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.96880962936062709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.9362760215815242</v>
+        <v>0.93627602158152423</v>
       </c>
       <c r="B26">
-        <v>0.8461746637642223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.84617466376422235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.3612228653632608</v>
+        <v>0.36122286536326081</v>
       </c>
       <c r="B27">
-        <v>0.4883261086551169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.48832610865511689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.01364035130526775</v>
+        <v>1.3640351305267751E-2</v>
       </c>
       <c r="B28">
-        <v>0.7289937896942029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.72899378969420292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.9469900296152332</v>
+        <v>0.94699002961523315</v>
       </c>
       <c r="B29">
-        <v>0.3434219622322758</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.34342196223227578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.9738569630535144</v>
+        <v>0.97385696305351444</v>
       </c>
       <c r="B30">
-        <v>0.7376086495136064</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.73760864951360638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.3875095214424866</v>
+        <v>0.38750952144248663</v>
       </c>
       <c r="B31">
-        <v>0.7366898003780135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.73668980037801346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.7891750103417111</v>
+        <v>0.78917501034171111</v>
       </c>
       <c r="B32">
-        <v>0.0953829564605907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>9.5382956460590695E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.5954194516978858</v>
+        <v>0.59541945169788579</v>
       </c>
       <c r="B33">
-        <v>0.2074511186540003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.20745111865400029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.3754382723142039</v>
       </c>
       <c r="B34">
-        <v>0.8239092743665596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.82390927436655959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.02629356936327132</v>
+        <v>2.6293569363271319E-2</v>
       </c>
       <c r="B35">
-        <v>0.2387764766332756</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.23877647663327559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.1231888216187227</v>
       </c>
       <c r="B36">
-        <v>0.09337395768251389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>9.3373957682513886E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.6726978100885039</v>
+        <v>0.67269781008850393</v>
       </c>
       <c r="B37">
-        <v>0.312709131085368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.31270913108536802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.691898574167869</v>
+        <v>0.69189857416786904</v>
       </c>
       <c r="B38">
-        <v>0.3995246214370656</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.39952462143706557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.9281742353343768</v>
+        <v>0.92817423533437682</v>
       </c>
       <c r="B39">
-        <v>0.4299949007723934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.42999490077239338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.4854159316657002</v>
+        <v>0.48541593166570018</v>
       </c>
       <c r="B40">
-        <v>0.2569638820580815</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.25696388205808152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.1156773587679288</v>
       </c>
@@ -724,481 +779,481 @@
         <v>0.1752060794941358</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.8380767626421168</v>
+        <v>0.83807676264211683</v>
       </c>
       <c r="B42">
-        <v>0.236053280028113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.23605328002811299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.3852507711523213</v>
+        <v>0.38525077115232131</v>
       </c>
       <c r="B43">
-        <v>0.3374370289888087</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.33743702898880867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.6698790548301488</v>
+        <v>0.66987905483014876</v>
       </c>
       <c r="B44">
-        <v>0.7532599080698468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.75325990806984677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.9511008896521497</v>
+        <v>0.95110088965214967</v>
       </c>
       <c r="B45">
-        <v>0.4724883017788468</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.47248830177884682</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.6288444508499814</v>
+        <v>0.62884445084998142</v>
       </c>
       <c r="B46">
-        <v>0.7675166657809221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.76751666578092215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.06030134708963664</v>
+        <v>6.0301347089636637E-2</v>
       </c>
       <c r="B47">
-        <v>0.2526190132522048</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.25261901325220482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.34402926042449</v>
       </c>
       <c r="B48">
-        <v>0.3510695674919113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.35106956749191132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.1481253390944215</v>
+        <v>0.14812533909442149</v>
       </c>
       <c r="B49">
         <v>0.973743932787691</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.187481727724144</v>
+        <v>0.18748172772414401</v>
       </c>
       <c r="B50">
         <v>0.5157040801223759</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.7602932560025137</v>
+        <v>0.76029325600251374</v>
       </c>
       <c r="B51">
         <v>0.1599833557874478</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.2244933475532096</v>
       </c>
       <c r="B52">
-        <v>0.3825414183421522</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.38254141834215222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.1944910216397441</v>
       </c>
       <c r="B53">
-        <v>0.749022801263281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.74902280126328102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.04435823212097278</v>
+        <v>4.4358232120972778E-2</v>
       </c>
       <c r="B54">
         <v>0.8967172018805829</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.1939874241497695</v>
+        <v>0.19398742414976949</v>
       </c>
       <c r="B55">
-        <v>0.3899240995552704</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.38992409955527041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.7664322113109282</v>
       </c>
       <c r="B56">
-        <v>0.8573053565185477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.85730535651854767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.8355777595991961</v>
+        <v>0.83557775959919611</v>
       </c>
       <c r="B57">
-        <v>0.7116633265691165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.71166332656911646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.05980586257968734</v>
+        <v>5.9805862579687341E-2</v>
       </c>
       <c r="B58">
-        <v>0.5507092620298709</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.55070926202987092</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.7482483503059313</v>
+        <v>0.74824835030593129</v>
       </c>
       <c r="B59">
-        <v>0.7816817002902501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.78168170029025008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.1396050932637247</v>
+        <v>0.13960509326372469</v>
       </c>
       <c r="B60">
-        <v>0.5707827742038077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.57078277420380774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.1221512276061142</v>
       </c>
       <c r="B61">
-        <v>0.7453030796523772</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.74530307965237719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.2829613632141886</v>
+        <v>0.28296136321418858</v>
       </c>
       <c r="B62">
-        <v>0.3810666219661568</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.38106662196615682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.3219883043040879</v>
+        <v>0.32198830430408792</v>
       </c>
       <c r="B63">
-        <v>0.3881655870753156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.38816558707531562</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.2175169733420603</v>
       </c>
       <c r="B64">
-        <v>0.5451323889318733</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.54513238893187332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.02792447274630239</v>
+        <v>2.792447274630239E-2</v>
       </c>
       <c r="B65">
-        <v>0.4649948725882336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.46499487258823358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.6030122700322349</v>
       </c>
       <c r="B66">
-        <v>0.532540360931171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.53254036093117096</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.5742376767997318</v>
+        <v>0.57423767679973181</v>
       </c>
       <c r="B67">
         <v>0.8482748975245461</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.5949388596576319</v>
+        <v>0.59493885965763194</v>
       </c>
       <c r="B68">
-        <v>0.01694733566385098</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1.6947335663850979E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.7343308342860163</v>
+        <v>0.73433083428601631</v>
       </c>
       <c r="B69">
-        <v>0.9463085201669634</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.94630852016696343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.3487899710555981</v>
+        <v>0.34878997105559811</v>
       </c>
       <c r="B70">
-        <v>0.5900989897570663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.59009898975706632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.8406273919254745</v>
+        <v>0.84062739192547453</v>
       </c>
       <c r="B71">
-        <v>0.8292726996174636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.82927269961746364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.2494715544810309</v>
+        <v>0.24947155448103089</v>
       </c>
       <c r="B72">
-        <v>0.217287817020391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.21728781702039099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.8148409938333122</v>
+        <v>0.81484099383331221</v>
       </c>
       <c r="B73">
-        <v>0.6704326819034088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.67043268190340877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.1648132712936546</v>
+        <v>0.16481327129365461</v>
       </c>
       <c r="B74">
-        <v>0.6472320450685979</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.64723204506859788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.838478090296141</v>
+        <v>0.83847809029614095</v>
       </c>
       <c r="B75">
         <v>0.5999231690769401</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.4898939807059973</v>
+        <v>0.48989398070599732</v>
       </c>
       <c r="B76">
-        <v>0.3810169075244759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.38101690752447592</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.1210724818222479</v>
       </c>
       <c r="B77">
-        <v>0.6353430713599069</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.63534307135990686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.5462451602809371</v>
+        <v>0.54624516028093706</v>
       </c>
       <c r="B78">
-        <v>0.5587800883469647</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.55878008834696469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.2835102310072953</v>
+        <v>0.28351023100729528</v>
       </c>
       <c r="B79">
-        <v>0.3528062379930815</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.35280623799308147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.8950517696692317</v>
+        <v>0.89505176966923172</v>
       </c>
       <c r="B80">
-        <v>0.04742861555151345</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>4.7428615551513453E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.5517583008798583</v>
+        <v>0.55175830087985833</v>
       </c>
       <c r="B81">
-        <v>0.4992244120006726</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.49922441200067258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.2870930676353154</v>
+        <v>0.28709306763531539</v>
       </c>
       <c r="B82">
-        <v>0.8631398393937365</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.86313983939373651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.6107507433012703</v>
+        <v>0.61075074330127033</v>
       </c>
       <c r="B83">
-        <v>0.5139996511870125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.51399965118701252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.2033899320405603</v>
       </c>
       <c r="B84">
-        <v>0.3133460731193832</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.31334607311938317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.670609376136908</v>
+        <v>0.67060937613690796</v>
       </c>
       <c r="B85">
         <v>0.1788943817219959</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.01392520152287313</v>
+        <v>1.392520152287313E-2</v>
       </c>
       <c r="B86">
-        <v>0.03835711158857324</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>3.8357111588573238E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.2070131097868467</v>
       </c>
       <c r="B87">
-        <v>0.7029112822466383</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.70291128224663835</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.8230756991215449</v>
+        <v>0.82307569912154488</v>
       </c>
       <c r="B88">
-        <v>0.6271075451420974</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.62710754514209743</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.8689992181779319</v>
+        <v>0.86899921817793191</v>
       </c>
       <c r="B89">
-        <v>0.07040718667001633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>7.0407186670016331E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.449143755872025</v>
+        <v>0.44914375587202499</v>
       </c>
       <c r="B90">
-        <v>0.3507757987053596</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.35077579870535958</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.8138463439182472</v>
+        <v>0.81384634391824717</v>
       </c>
       <c r="B91">
-        <v>0.7246965550113866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.72469655501138663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.9213151647645376</v>
+        <v>0.92131516476453756</v>
       </c>
       <c r="B92">
-        <v>0.1597619149573825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.15976191495738251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.2938733197894191</v>
+        <v>0.29387331978941911</v>
       </c>
       <c r="B93">
-        <v>0.09462097677105907</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>9.4620976771059073E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.1061604521898915</v>
+        <v>0.10616045218989149</v>
       </c>
       <c r="B94">
-        <v>0.5916247226703339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.59162472267033395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.7141942806244121</v>
+        <v>0.71419428062441215</v>
       </c>
       <c r="B95">
         <v>0.189991601626847</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.6447170504843054</v>
+        <v>0.64471705048430539</v>
       </c>
       <c r="B96">
-        <v>0.6985110031948334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.69851100319483339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.6868969779172295</v>
+        <v>0.68689697791722948</v>
       </c>
       <c r="B97">
-        <v>0.2547562744043627</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.25475627440436271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.2002217464997407</v>
       </c>
       <c r="B98">
-        <v>0.07572450767798289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>7.5724507677982889E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.3515850187660691</v>
+        <v>0.35158501876606912</v>
       </c>
       <c r="B99">
-        <v>0.1996126315668313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.19961263156683129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.9761849604713814</v>
+        <v>0.97618496047138137</v>
       </c>
       <c r="B100">
-        <v>0.4206118695932139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.42061186959321389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.4790356865324351</v>
+        <v>0.47903568653243511</v>
       </c>
       <c r="B101">
         <v>0.2021706051519446</v>
